--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf18-Fgfr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf18-Fgfr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Fgfr1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>2.767962666666667</v>
+        <v>0.04649666666666667</v>
       </c>
       <c r="H2">
-        <v>8.303888000000001</v>
+        <v>0.13949</v>
       </c>
       <c r="I2">
-        <v>0.6703478441031137</v>
+        <v>0.01142756306255085</v>
       </c>
       <c r="J2">
-        <v>0.717797521317681</v>
+        <v>0.01231108303727984</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.743825</v>
+        <v>5.978421000000001</v>
       </c>
       <c r="N2">
-        <v>20.231475</v>
+        <v>17.935263</v>
       </c>
       <c r="O2">
-        <v>0.06175298453338176</v>
+        <v>0.05704457007880161</v>
       </c>
       <c r="P2">
-        <v>0.06809253940846915</v>
+        <v>0.06242884486533885</v>
       </c>
       <c r="Q2">
-        <v>18.66665583053334</v>
+        <v>0.27797664843</v>
       </c>
       <c r="R2">
-        <v>167.9999024748</v>
+        <v>2.50178983587</v>
       </c>
       <c r="S2">
-        <v>0.04139598004888539</v>
+        <v>0.0006518804219516069</v>
       </c>
       <c r="T2">
-        <v>0.04887665600762568</v>
+        <v>0.0007685666930586475</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>2.767962666666667</v>
+        <v>0.04649666666666667</v>
       </c>
       <c r="H3">
-        <v>8.303888000000001</v>
+        <v>0.13949</v>
       </c>
       <c r="I3">
-        <v>0.6703478441031137</v>
+        <v>0.01142756306255085</v>
       </c>
       <c r="J3">
-        <v>0.717797521317681</v>
+        <v>0.01231108303727984</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>208.973595</v>
       </c>
       <c r="O3">
-        <v>0.6378547871531949</v>
+        <v>0.6646576013185088</v>
       </c>
       <c r="P3">
-        <v>0.7033368922862506</v>
+        <v>0.7273927426214574</v>
       </c>
       <c r="Q3">
-        <v>192.8103697597067</v>
+        <v>3.238858529616667</v>
       </c>
       <c r="R3">
-        <v>1735.29332783736</v>
+        <v>29.14972676655</v>
       </c>
       <c r="S3">
-        <v>0.4275845814189946</v>
+        <v>0.007595416654071043</v>
       </c>
       <c r="T3">
-        <v>0.5048534779343515</v>
+        <v>0.008954992455127483</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>2.767962666666667</v>
+        <v>0.04649666666666667</v>
       </c>
       <c r="H4">
-        <v>8.303888000000001</v>
+        <v>0.13949</v>
       </c>
       <c r="I4">
-        <v>0.6703478441031137</v>
+        <v>0.01142756306255085</v>
       </c>
       <c r="J4">
-        <v>0.717797521317681</v>
+        <v>0.01231108303727984</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.263827666666667</v>
+        <v>1.290243</v>
       </c>
       <c r="N4">
-        <v>3.791482999999999</v>
+        <v>3.870729</v>
       </c>
       <c r="O4">
-        <v>0.01157282852869501</v>
+        <v>0.01231116999491725</v>
       </c>
       <c r="P4">
-        <v>0.01276089388411081</v>
+        <v>0.01347318632889677</v>
       </c>
       <c r="Q4">
-        <v>3.498227798433778</v>
+        <v>0.05999199869</v>
       </c>
       <c r="R4">
-        <v>31.484050185904</v>
+        <v>0.53992798821</v>
       </c>
       <c r="S4">
-        <v>0.007757820654385707</v>
+        <v>0.0001406866714907008</v>
       </c>
       <c r="T4">
-        <v>0.009159737999812697</v>
+        <v>0.0001658695156717917</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>2.767962666666667</v>
+        <v>0.04649666666666667</v>
       </c>
       <c r="H5">
-        <v>8.303888000000001</v>
+        <v>0.13949</v>
       </c>
       <c r="I5">
-        <v>0.6703478441031137</v>
+        <v>0.01142756306255085</v>
       </c>
       <c r="J5">
-        <v>0.717797521317681</v>
+        <v>0.01231108303727984</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.502036</v>
+        <v>27.1166075</v>
       </c>
       <c r="N5">
-        <v>61.004072</v>
+        <v>54.233215</v>
       </c>
       <c r="O5">
-        <v>0.2793061441162328</v>
+        <v>0.2587397603536297</v>
       </c>
       <c r="P5">
-        <v>0.205319788929729</v>
+        <v>0.1887743138075849</v>
       </c>
       <c r="Q5">
-        <v>84.42849690532267</v>
+        <v>1.260831860058333</v>
       </c>
       <c r="R5">
-        <v>506.570981431936</v>
+        <v>7.56499116035</v>
       </c>
       <c r="S5">
-        <v>0.1872322715530702</v>
+        <v>0.002956764928230398</v>
       </c>
       <c r="T5">
-        <v>0.1473780355712289</v>
+        <v>0.0023240162525907</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>2.767962666666667</v>
+        <v>0.04649666666666667</v>
       </c>
       <c r="H6">
-        <v>8.303888000000001</v>
+        <v>0.13949</v>
       </c>
       <c r="I6">
-        <v>0.6703478441031137</v>
+        <v>0.01142756306255085</v>
       </c>
       <c r="J6">
-        <v>0.717797521317681</v>
+        <v>0.01231108303727984</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.038909</v>
+        <v>0.759494</v>
       </c>
       <c r="N6">
-        <v>3.116727</v>
+        <v>2.278482</v>
       </c>
       <c r="O6">
-        <v>0.009513255668495419</v>
+        <v>0.00724689825414258</v>
       </c>
       <c r="P6">
-        <v>0.01048988549144043</v>
+        <v>0.007930912376722157</v>
       </c>
       <c r="Q6">
-        <v>2.875661326064001</v>
+        <v>0.03531393935333333</v>
       </c>
       <c r="R6">
-        <v>25.880951934576</v>
+        <v>0.31782545418</v>
       </c>
       <c r="S6">
-        <v>0.006377190427777629</v>
+        <v>8.281438680710402E-05</v>
       </c>
       <c r="T6">
-        <v>0.007529613804662247</v>
+        <v>9.763812083121687E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,31 +835,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.1393433333333333</v>
+        <v>2.767962666666667</v>
       </c>
       <c r="H7">
-        <v>0.41803</v>
+        <v>8.303888000000001</v>
       </c>
       <c r="I7">
-        <v>0.03374630164453381</v>
+        <v>0.680286786037417</v>
       </c>
       <c r="J7">
-        <v>0.03613498855432903</v>
+        <v>0.7328830360618797</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.743825</v>
+        <v>5.978421000000001</v>
       </c>
       <c r="N7">
-        <v>20.231475</v>
+        <v>17.935263</v>
       </c>
       <c r="O7">
-        <v>0.06175298453338176</v>
+        <v>0.05704457007880161</v>
       </c>
       <c r="P7">
-        <v>0.06809253940846915</v>
+        <v>0.06242884486533885</v>
       </c>
       <c r="Q7">
-        <v>0.9397070549166667</v>
+        <v>16.548046133616</v>
       </c>
       <c r="R7">
-        <v>8.45736349425</v>
+        <v>148.932415202544</v>
       </c>
       <c r="S7">
-        <v>0.002083934843513732</v>
+        <v>0.03880666723979415</v>
       </c>
       <c r="T7">
-        <v>0.002460523132160232</v>
+        <v>0.04575304136274562</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,31 +897,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.1393433333333333</v>
+        <v>2.767962666666667</v>
       </c>
       <c r="H8">
-        <v>0.41803</v>
+        <v>8.303888000000001</v>
       </c>
       <c r="I8">
-        <v>0.03374630164453381</v>
+        <v>0.680286786037417</v>
       </c>
       <c r="J8">
-        <v>0.03613498855432903</v>
+        <v>0.7328830360618797</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>208.973595</v>
       </c>
       <c r="O8">
-        <v>0.6378547871531949</v>
+        <v>0.6646576013185088</v>
       </c>
       <c r="P8">
-        <v>0.7033368922862506</v>
+        <v>0.7273927426214574</v>
       </c>
       <c r="Q8">
-        <v>9.706359101983335</v>
+        <v>192.8103697597067</v>
       </c>
       <c r="R8">
-        <v>87.35723191785</v>
+        <v>1735.29332783736</v>
       </c>
       <c r="S8">
-        <v>0.02152524005268163</v>
+        <v>0.4521577834163072</v>
       </c>
       <c r="T8">
-        <v>0.02541507055260102</v>
+        <v>0.5330938016217911</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,31 +959,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.1393433333333333</v>
+        <v>2.767962666666667</v>
       </c>
       <c r="H9">
-        <v>0.41803</v>
+        <v>8.303888000000001</v>
       </c>
       <c r="I9">
-        <v>0.03374630164453381</v>
+        <v>0.680286786037417</v>
       </c>
       <c r="J9">
-        <v>0.03613498855432903</v>
+        <v>0.7328830360618797</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.263827666666667</v>
+        <v>1.290243</v>
       </c>
       <c r="N9">
-        <v>3.791482999999999</v>
+        <v>3.870729</v>
       </c>
       <c r="O9">
-        <v>0.01157282852869501</v>
+        <v>0.01231116999491725</v>
       </c>
       <c r="P9">
-        <v>0.01276089388411081</v>
+        <v>0.01347318632889677</v>
       </c>
       <c r="Q9">
-        <v>0.1761059598322222</v>
+        <v>3.571344454928</v>
       </c>
       <c r="R9">
-        <v>1.58495363849</v>
+        <v>32.142100094352</v>
       </c>
       <c r="S9">
-        <v>0.0003905401624098082</v>
+        <v>0.008375126268202542</v>
       </c>
       <c r="T9">
-        <v>0.0004611147544453516</v>
+        <v>0.009874269702149278</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,31 +1021,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.1393433333333333</v>
+        <v>2.767962666666667</v>
       </c>
       <c r="H10">
-        <v>0.41803</v>
+        <v>8.303888000000001</v>
       </c>
       <c r="I10">
-        <v>0.03374630164453381</v>
+        <v>0.680286786037417</v>
       </c>
       <c r="J10">
-        <v>0.03613498855432903</v>
+        <v>0.7328830360618797</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.502036</v>
+        <v>27.1166075</v>
       </c>
       <c r="N10">
-        <v>61.004072</v>
+        <v>54.233215</v>
       </c>
       <c r="O10">
-        <v>0.2793061441162328</v>
+        <v>0.2587397603536297</v>
       </c>
       <c r="P10">
-        <v>0.205319788929729</v>
+        <v>0.1887743138075849</v>
       </c>
       <c r="Q10">
-        <v>4.250255369693334</v>
+        <v>75.05775720665335</v>
       </c>
       <c r="R10">
-        <v>25.50153221816</v>
+        <v>450.34654323992</v>
       </c>
       <c r="S10">
-        <v>0.009425549390518024</v>
+        <v>0.1760172399910622</v>
       </c>
       <c r="T10">
-        <v>0.007419228222953011</v>
+        <v>0.1383494922338009</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,31 +1083,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.1393433333333333</v>
+        <v>2.767962666666667</v>
       </c>
       <c r="H11">
-        <v>0.41803</v>
+        <v>8.303888000000001</v>
       </c>
       <c r="I11">
-        <v>0.03374630164453381</v>
+        <v>0.680286786037417</v>
       </c>
       <c r="J11">
-        <v>0.03613498855432903</v>
+        <v>0.7328830360618797</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.038909</v>
+        <v>0.759494</v>
       </c>
       <c r="N11">
-        <v>3.116727</v>
+        <v>2.278482</v>
       </c>
       <c r="O11">
-        <v>0.009513255668495419</v>
+        <v>0.00724689825414258</v>
       </c>
       <c r="P11">
-        <v>0.01048988549144043</v>
+        <v>0.007930912376722157</v>
       </c>
       <c r="Q11">
-        <v>0.14476504309</v>
+        <v>2.102251037557334</v>
       </c>
       <c r="R11">
-        <v>1.30288538781</v>
+        <v>18.920259338016</v>
       </c>
       <c r="S11">
-        <v>0.0003210371954106176</v>
+        <v>0.004929969122050824</v>
       </c>
       <c r="T11">
-        <v>0.0003790518921694222</v>
+        <v>0.005812431141392872</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.8188655</v>
+        <v>0.1770266666666667</v>
       </c>
       <c r="H12">
-        <v>1.637731</v>
+        <v>0.53108</v>
       </c>
       <c r="I12">
-        <v>0.1983136294235007</v>
+        <v>0.04350813815513304</v>
       </c>
       <c r="J12">
-        <v>0.1415673299525628</v>
+        <v>0.04687196200041993</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.743825</v>
+        <v>5.978421000000001</v>
       </c>
       <c r="N12">
-        <v>20.231475</v>
+        <v>17.935263</v>
       </c>
       <c r="O12">
-        <v>0.06175298453338176</v>
+        <v>0.05704457007880161</v>
       </c>
       <c r="P12">
-        <v>0.06809253940846915</v>
+        <v>0.06242884486533885</v>
       </c>
       <c r="Q12">
-        <v>5.522285630537501</v>
+        <v>1.05833994156</v>
       </c>
       <c r="R12">
-        <v>33.133713783225</v>
+        <v>9.525059474040001</v>
       </c>
       <c r="S12">
-        <v>0.01224645849054824</v>
+        <v>0.002481903035988669</v>
       </c>
       <c r="T12">
-        <v>0.009639678993746639</v>
+        <v>0.002926162444258273</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.8188655</v>
+        <v>0.1770266666666667</v>
       </c>
       <c r="H13">
-        <v>1.637731</v>
+        <v>0.53108</v>
       </c>
       <c r="I13">
-        <v>0.1983136294235007</v>
+        <v>0.04350813815513304</v>
       </c>
       <c r="J13">
-        <v>0.1415673299525628</v>
+        <v>0.04687196200041993</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>208.973595</v>
       </c>
       <c r="O13">
-        <v>0.6378547871531949</v>
+        <v>0.6646576013185088</v>
       </c>
       <c r="P13">
-        <v>0.7033368922862506</v>
+        <v>0.7273927426214574</v>
       </c>
       <c r="Q13">
-        <v>57.0404224521575</v>
+        <v>12.33129964806667</v>
       </c>
       <c r="R13">
-        <v>342.242534712945</v>
+        <v>110.9816968326</v>
       </c>
       <c r="S13">
-        <v>0.1264952978855046</v>
+        <v>0.02891801474402502</v>
       </c>
       <c r="T13">
-        <v>0.09956952589809778</v>
+        <v>0.03409432499153418</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.8188655</v>
+        <v>0.1770266666666667</v>
       </c>
       <c r="H14">
-        <v>1.637731</v>
+        <v>0.53108</v>
       </c>
       <c r="I14">
-        <v>0.1983136294235007</v>
+        <v>0.04350813815513304</v>
       </c>
       <c r="J14">
-        <v>0.1415673299525628</v>
+        <v>0.04687196200041993</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.263827666666667</v>
+        <v>1.290243</v>
       </c>
       <c r="N14">
-        <v>3.791482999999999</v>
+        <v>3.870729</v>
       </c>
       <c r="O14">
-        <v>0.01157282852869501</v>
+        <v>0.01231116999491725</v>
       </c>
       <c r="P14">
-        <v>0.01276089388411081</v>
+        <v>0.01347318632889677</v>
       </c>
       <c r="Q14">
-        <v>1.034904874178833</v>
+        <v>0.22840741748</v>
       </c>
       <c r="R14">
-        <v>6.209429245072999</v>
+        <v>2.05566675732</v>
       </c>
       <c r="S14">
-        <v>0.002295049628221339</v>
+        <v>0.0005356360849901884</v>
       </c>
       <c r="T14">
-        <v>0.001806525674981557</v>
+        <v>0.0006315146776326269</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.8188655</v>
+        <v>0.1770266666666667</v>
       </c>
       <c r="H15">
-        <v>1.637731</v>
+        <v>0.53108</v>
       </c>
       <c r="I15">
-        <v>0.1983136294235007</v>
+        <v>0.04350813815513304</v>
       </c>
       <c r="J15">
-        <v>0.1415673299525628</v>
+        <v>0.04687196200041993</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>30.502036</v>
+        <v>27.1166075</v>
       </c>
       <c r="N15">
-        <v>61.004072</v>
+        <v>54.233215</v>
       </c>
       <c r="O15">
-        <v>0.2793061441162328</v>
+        <v>0.2587397603536297</v>
       </c>
       <c r="P15">
-        <v>0.205319788929729</v>
+        <v>0.1887743138075849</v>
       </c>
       <c r="Q15">
-        <v>24.977064960158</v>
+        <v>4.800362637033333</v>
       </c>
       <c r="R15">
-        <v>99.908259840632</v>
+        <v>28.8021758222</v>
       </c>
       <c r="S15">
-        <v>0.05539021515997348</v>
+        <v>0.01125728523969173</v>
       </c>
       <c r="T15">
-        <v>0.0290665743052055</v>
+        <v>0.00884822246344447</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.8188655</v>
+        <v>0.1770266666666667</v>
       </c>
       <c r="H16">
-        <v>1.637731</v>
+        <v>0.53108</v>
       </c>
       <c r="I16">
-        <v>0.1983136294235007</v>
+        <v>0.04350813815513304</v>
       </c>
       <c r="J16">
-        <v>0.1415673299525628</v>
+        <v>0.04687196200041993</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.038909</v>
+        <v>0.759494</v>
       </c>
       <c r="N16">
-        <v>3.116727</v>
+        <v>2.278482</v>
       </c>
       <c r="O16">
-        <v>0.009513255668495419</v>
+        <v>0.00724689825414258</v>
       </c>
       <c r="P16">
-        <v>0.01048988549144043</v>
+        <v>0.007930912376722157</v>
       </c>
       <c r="Q16">
-        <v>0.8507267377395001</v>
+        <v>0.1344506911733333</v>
       </c>
       <c r="R16">
-        <v>5.104360426437</v>
+        <v>1.21005622056</v>
       </c>
       <c r="S16">
-        <v>0.001886608259253018</v>
+        <v>0.0003152990504374278</v>
       </c>
       <c r="T16">
-        <v>0.001485025080531349</v>
+        <v>0.000371737423550381</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.4029723333333333</v>
+        <v>0.876011</v>
       </c>
       <c r="H17">
-        <v>1.208917</v>
+        <v>1.752022</v>
       </c>
       <c r="I17">
-        <v>0.09759222482885171</v>
+        <v>0.2152986797473991</v>
       </c>
       <c r="J17">
-        <v>0.1045001601754271</v>
+        <v>0.1546296388640124</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.743825</v>
+        <v>5.978421000000001</v>
       </c>
       <c r="N17">
-        <v>20.231475</v>
+        <v>17.935263</v>
       </c>
       <c r="O17">
-        <v>0.06175298453338176</v>
+        <v>0.05704457007880161</v>
       </c>
       <c r="P17">
-        <v>0.06809253940846915</v>
+        <v>0.06242884486533885</v>
       </c>
       <c r="Q17">
-        <v>2.717574895841667</v>
+        <v>5.237162558631001</v>
       </c>
       <c r="R17">
-        <v>24.458174062575</v>
+        <v>31.422975351786</v>
       </c>
       <c r="S17">
-        <v>0.006026611150434395</v>
+        <v>0.01228162062472397</v>
       </c>
       <c r="T17">
-        <v>0.007115681274936609</v>
+        <v>0.009653349736224802</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.4029723333333333</v>
+        <v>0.876011</v>
       </c>
       <c r="H18">
-        <v>1.208917</v>
+        <v>1.752022</v>
       </c>
       <c r="I18">
-        <v>0.09759222482885171</v>
+        <v>0.2152986797473991</v>
       </c>
       <c r="J18">
-        <v>0.1045001601754271</v>
+        <v>0.1546296388640124</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>208.973595</v>
       </c>
       <c r="O18">
-        <v>0.6378547871531949</v>
+        <v>0.6646576013185088</v>
       </c>
       <c r="P18">
-        <v>0.7033368922862506</v>
+        <v>0.7273927426214574</v>
       </c>
       <c r="Q18">
-        <v>28.07019239406833</v>
+        <v>61.021055976515</v>
       </c>
       <c r="R18">
-        <v>252.631731546615</v>
+        <v>366.12633585909</v>
       </c>
       <c r="S18">
-        <v>0.06224966779601395</v>
+        <v>0.1430999040479481</v>
       </c>
       <c r="T18">
-        <v>0.0734988179012003</v>
+        <v>0.1124764771038595</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.4029723333333333</v>
+        <v>0.876011</v>
       </c>
       <c r="H19">
-        <v>1.208917</v>
+        <v>1.752022</v>
       </c>
       <c r="I19">
-        <v>0.09759222482885171</v>
+        <v>0.2152986797473991</v>
       </c>
       <c r="J19">
-        <v>0.1045001601754271</v>
+        <v>0.1546296388640124</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.263827666666667</v>
+        <v>1.290243</v>
       </c>
       <c r="N19">
-        <v>3.791482999999999</v>
+        <v>3.870729</v>
       </c>
       <c r="O19">
-        <v>0.01157282852869501</v>
+        <v>0.01231116999491725</v>
       </c>
       <c r="P19">
-        <v>0.01276089388411081</v>
+        <v>0.01347318632889677</v>
       </c>
       <c r="Q19">
-        <v>0.5092875837678889</v>
+        <v>1.130267060673</v>
       </c>
       <c r="R19">
-        <v>4.583588253911</v>
+        <v>6.781602364037999</v>
       </c>
       <c r="S19">
-        <v>0.001129418083678152</v>
+        <v>0.002650578646051479</v>
       </c>
       <c r="T19">
-        <v>0.001333515454871208</v>
+        <v>0.002083353936384858</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>2</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.4029723333333333</v>
+        <v>0.876011</v>
       </c>
       <c r="H20">
-        <v>1.208917</v>
+        <v>1.752022</v>
       </c>
       <c r="I20">
-        <v>0.09759222482885171</v>
+        <v>0.2152986797473991</v>
       </c>
       <c r="J20">
-        <v>0.1045001601754271</v>
+        <v>0.1546296388640124</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>30.502036</v>
+        <v>27.1166075</v>
       </c>
       <c r="N20">
-        <v>61.004072</v>
+        <v>54.233215</v>
       </c>
       <c r="O20">
-        <v>0.2793061441162328</v>
+        <v>0.2587397603536297</v>
       </c>
       <c r="P20">
-        <v>0.205319788929729</v>
+        <v>0.1887743138075849</v>
       </c>
       <c r="Q20">
-        <v>12.29147661833733</v>
+        <v>23.7544464526825</v>
       </c>
       <c r="R20">
-        <v>73.74885971002401</v>
+        <v>95.01778581073</v>
       </c>
       <c r="S20">
-        <v>0.02725810801267105</v>
+        <v>0.05570632880229491</v>
       </c>
       <c r="T20">
-        <v>0.02145595083034156</v>
+        <v>0.02919010397086862</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
       </c>
       <c r="E21">
         <v>2</v>
       </c>
       <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.876011</v>
+      </c>
+      <c r="H21">
+        <v>1.752022</v>
+      </c>
+      <c r="I21">
+        <v>0.2152986797473991</v>
+      </c>
+      <c r="J21">
+        <v>0.1546296388640124</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.759494</v>
+      </c>
+      <c r="N21">
+        <v>2.278482</v>
+      </c>
+      <c r="O21">
+        <v>0.00724689825414258</v>
+      </c>
+      <c r="P21">
+        <v>0.007930912376722157</v>
+      </c>
+      <c r="Q21">
+        <v>0.665325098434</v>
+      </c>
+      <c r="R21">
+        <v>3.991950590604</v>
+      </c>
+      <c r="S21">
+        <v>0.001560247626380629</v>
+      </c>
+      <c r="T21">
+        <v>0.001226354116674674</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G21">
-        <v>0.4029723333333333</v>
-      </c>
-      <c r="H21">
-        <v>1.208917</v>
-      </c>
-      <c r="I21">
-        <v>0.09759222482885171</v>
-      </c>
-      <c r="J21">
-        <v>0.1045001601754271</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>1.038909</v>
-      </c>
-      <c r="N21">
-        <v>3.116727</v>
-      </c>
-      <c r="O21">
-        <v>0.009513255668495419</v>
-      </c>
-      <c r="P21">
-        <v>0.01048988549144043</v>
-      </c>
-      <c r="Q21">
-        <v>0.418651583851</v>
-      </c>
-      <c r="R21">
-        <v>3.767864254659</v>
-      </c>
-      <c r="S21">
-        <v>0.000928419786054153</v>
-      </c>
-      <c r="T21">
-        <v>0.001096194714077414</v>
+      <c r="G22">
+        <v>0.2013203333333333</v>
+      </c>
+      <c r="H22">
+        <v>0.603961</v>
+      </c>
+      <c r="I22">
+        <v>0.04947883299750001</v>
+      </c>
+      <c r="J22">
+        <v>0.05330428003640811</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>5.978421000000001</v>
+      </c>
+      <c r="N22">
+        <v>17.935263</v>
+      </c>
+      <c r="O22">
+        <v>0.05704457007880161</v>
+      </c>
+      <c r="P22">
+        <v>0.06242884486533885</v>
+      </c>
+      <c r="Q22">
+        <v>1.203577708527</v>
+      </c>
+      <c r="R22">
+        <v>10.832199376743</v>
+      </c>
+      <c r="S22">
+        <v>0.00282249875634321</v>
+      </c>
+      <c r="T22">
+        <v>0.0033277246290515</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.2013203333333333</v>
+      </c>
+      <c r="H23">
+        <v>0.603961</v>
+      </c>
+      <c r="I23">
+        <v>0.04947883299750001</v>
+      </c>
+      <c r="J23">
+        <v>0.05330428003640811</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>69.657865</v>
+      </c>
+      <c r="N23">
+        <v>208.973595</v>
+      </c>
+      <c r="O23">
+        <v>0.6646576013185088</v>
+      </c>
+      <c r="P23">
+        <v>0.7273927426214574</v>
+      </c>
+      <c r="Q23">
+        <v>14.02354460108833</v>
+      </c>
+      <c r="R23">
+        <v>126.211901409795</v>
+      </c>
+      <c r="S23">
+        <v>0.03288648245615744</v>
+      </c>
+      <c r="T23">
+        <v>0.03877314644914509</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.2013203333333333</v>
+      </c>
+      <c r="H24">
+        <v>0.603961</v>
+      </c>
+      <c r="I24">
+        <v>0.04947883299750001</v>
+      </c>
+      <c r="J24">
+        <v>0.05330428003640811</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1.290243</v>
+      </c>
+      <c r="N24">
+        <v>3.870729</v>
+      </c>
+      <c r="O24">
+        <v>0.01231116999491725</v>
+      </c>
+      <c r="P24">
+        <v>0.01347318632889677</v>
+      </c>
+      <c r="Q24">
+        <v>0.259752150841</v>
+      </c>
+      <c r="R24">
+        <v>2.337769357569</v>
+      </c>
+      <c r="S24">
+        <v>0.0006091423241823439</v>
+      </c>
+      <c r="T24">
+        <v>0.000718178497058219</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.2013203333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.603961</v>
+      </c>
+      <c r="I25">
+        <v>0.04947883299750001</v>
+      </c>
+      <c r="J25">
+        <v>0.05330428003640811</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>27.1166075</v>
+      </c>
+      <c r="N25">
+        <v>54.233215</v>
+      </c>
+      <c r="O25">
+        <v>0.2587397603536297</v>
+      </c>
+      <c r="P25">
+        <v>0.1887743138075849</v>
+      </c>
+      <c r="Q25">
+        <v>5.459124460769167</v>
+      </c>
+      <c r="R25">
+        <v>32.754746764615</v>
+      </c>
+      <c r="S25">
+        <v>0.01280214139235042</v>
+      </c>
+      <c r="T25">
+        <v>0.01006247888688029</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.2013203333333333</v>
+      </c>
+      <c r="H26">
+        <v>0.603961</v>
+      </c>
+      <c r="I26">
+        <v>0.04947883299750001</v>
+      </c>
+      <c r="J26">
+        <v>0.05330428003640811</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.759494</v>
+      </c>
+      <c r="N26">
+        <v>2.278482</v>
+      </c>
+      <c r="O26">
+        <v>0.00724689825414258</v>
+      </c>
+      <c r="P26">
+        <v>0.007930912376722157</v>
+      </c>
+      <c r="Q26">
+        <v>0.1529015852446667</v>
+      </c>
+      <c r="R26">
+        <v>1.376114267202</v>
+      </c>
+      <c r="S26">
+        <v>0.0003585680684665951</v>
+      </c>
+      <c r="T26">
+        <v>0.0004227515742730128</v>
       </c>
     </row>
   </sheetData>
